--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,76 +194,6 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$E$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>229.788</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1248.989</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2503.1209</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5035.665</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
@@ -296,21 +226,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$E$4</c:f>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>294.265</c:v>
+                  <c:v>229.788</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1578.03</c:v>
+                  <c:v>1248.989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3157.58</c:v>
+                  <c:v>2503.1209</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6353.71</c:v>
+                  <c:v>5035.665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -318,15 +248,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>Sheet1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EDF</c:v>
+                  <c:v>RR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -334,7 +264,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -366,10 +296,92 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>Sheet1!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>294.265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1578.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3157.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6353.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EDF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>Sheet1!$B$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>264.735</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1425.019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2896.156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5832.1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -392,7 +404,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1033,6 +1047,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>325.396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1453.57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2834.374</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5623.348</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1430,12 +1456,9 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -2869,7 +2892,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2931,6 +2954,18 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5">
+        <v>264.73500000000001</v>
+      </c>
+      <c r="C5">
+        <v>1425.019</v>
+      </c>
+      <c r="D5">
+        <v>2896.1559999999999</v>
+      </c>
+      <c r="E5">
+        <v>5832.1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3005,6 +3040,18 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
+      </c>
+      <c r="B12">
+        <v>325.39600000000002</v>
+      </c>
+      <c r="C12">
+        <v>1453.57</v>
+      </c>
+      <c r="D12">
+        <v>2834.3739999999998</v>
+      </c>
+      <c r="E12">
+        <v>5623.348</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
